--- a/Journal Shortlist/Relevant_ones.xlsx
+++ b/Journal Shortlist/Relevant_ones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -322,6 +322,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -339,12 +340,24 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -381,8 +394,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,18 +426,21 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E:E"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.5969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2397959183674"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.6785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2602040816326"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -518,7 +542,7 @@
       <c r="B5" s="0" t="n">
         <v>17334</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -619,7 +643,7 @@
       <c r="B9" s="0" t="n">
         <v>15465</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="0" t="s">
@@ -671,7 +695,7 @@
       <c r="B11" s="0" t="n">
         <v>17385</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -775,7 +799,7 @@
       <c r="B15" s="0" t="n">
         <v>15519</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="0" t="s">
@@ -1038,7 +1062,7 @@
       <c r="B25" s="0" t="n">
         <v>22707</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="0" t="n">
